--- a/钢石世界 重要地点.xlsx
+++ b/钢石世界 重要地点.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BW-Server\General (RAID5)\FlazeSky105\MC\指令\WoSR TP Book\WoSR_TP_Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBF614-A86F-44BE-AD17-EBA44BBADC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F4381B-6822-4751-8D0E-25BF32C33E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="15975" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="865">
   <si>
     <t>地点</t>
   </si>
@@ -2592,6 +2592,60 @@
   </si>
   <si>
     <t>/tp @p 24646 68 6365</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧年科技都市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Millenium Tech City</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枢纽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p 747 68 8841</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星海控制中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -144 72 8393</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙港廊桥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p 1141 91 8117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Port Bridge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea-of-Stars Control Center</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2667,7 +2721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2683,12 +2737,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2696,6 +2744,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2913,11 +2970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2962,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3">
-        <v>45313</v>
+        <v>45331</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3568,10 +3625,10 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3608,10 +3665,10 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
@@ -4696,8 +4753,12 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>852</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
@@ -4724,27 +4785,21 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A47" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -4766,27 +4821,21 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A48" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4808,27 +4857,21 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A49" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4850,27 +4893,13 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4893,16 +4922,16 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>184</v>
@@ -4935,18 +4964,26 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4969,18 +5006,26 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -5003,18 +5048,26 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -5037,20 +5090,26 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -5073,26 +5132,18 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -5115,14 +5166,14 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5149,14 +5200,14 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5183,14 +5234,16 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5217,18 +5270,26 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -5251,26 +5312,18 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -5293,26 +5346,18 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -5335,26 +5380,18 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -5377,26 +5414,18 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -5419,16 +5448,16 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>184</v>
@@ -5461,16 +5490,16 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>184</v>
@@ -5503,16 +5532,16 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>184</v>
@@ -5545,16 +5574,16 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>184</v>
@@ -5587,16 +5616,16 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>184</v>
@@ -5628,13 +5657,27 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -5657,25 +5700,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5699,25 +5742,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5741,25 +5784,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5782,27 +5825,13 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -5825,16 +5854,16 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>268</v>
@@ -5867,16 +5896,16 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>268</v>
@@ -5909,16 +5938,16 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>268</v>
@@ -5951,16 +5980,16 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>268</v>
@@ -5993,16 +6022,16 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>268</v>
@@ -6035,16 +6064,16 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>268</v>
@@ -6077,16 +6106,16 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>268</v>
@@ -6119,16 +6148,16 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>268</v>
@@ -6161,16 +6190,16 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>268</v>
@@ -6203,14 +6232,16 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B84" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C84" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>268</v>
@@ -6243,16 +6274,16 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>268</v>
@@ -6285,18 +6316,26 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C86" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -6319,18 +6358,26 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -6353,18 +6400,24 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -6387,16 +6440,16 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>268</v>
@@ -6429,26 +6482,18 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>337</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -6471,15 +6516,15 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -6505,15 +6550,15 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>343</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -6539,18 +6584,26 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+        <v>335</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -6573,16 +6626,26 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C94" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -6605,11 +6668,13 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
@@ -6637,17 +6702,15 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -6673,15 +6736,15 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -6707,15 +6770,13 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -6741,15 +6802,13 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>359</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -6775,16 +6834,16 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -6811,16 +6870,14 @@
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>365</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -6847,16 +6904,14 @@
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>369</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -6883,16 +6938,14 @@
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -6919,14 +6972,16 @@
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="C104" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -6953,14 +7008,16 @@
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>364</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -6987,16 +7044,16 @@
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -7023,14 +7080,16 @@
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -7057,14 +7116,14 @@
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -7095,10 +7154,10 @@
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -7124,10 +7183,18 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -7153,26 +7220,18 @@
     </row>
     <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -7195,26 +7254,18 @@
     </row>
     <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -7237,16 +7288,14 @@
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>400</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -7272,18 +7321,10 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>406</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -7309,20 +7350,26 @@
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -7345,16 +7392,16 @@
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>394</v>
@@ -7387,16 +7434,16 @@
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7423,13 +7470,17 @@
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -7455,13 +7506,17 @@
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -7487,16 +7542,26 @@
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B120" s="1"/>
+        <v>411</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+        <v>413</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -7519,13 +7584,17 @@
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -7550,9 +7619,13 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -7579,26 +7652,16 @@
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>426</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -7621,17 +7684,13 @@
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -7657,17 +7716,13 @@
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>435</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>437</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -7692,27 +7747,13 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -7735,10 +7776,10 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>82</v>
@@ -7777,14 +7818,16 @@
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7811,14 +7854,16 @@
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -7845,16 +7890,16 @@
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>427</v>
@@ -7887,16 +7932,16 @@
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>427</v>
@@ -7929,26 +7974,18 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>458</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -7971,14 +8008,14 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -8005,18 +8042,26 @@
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B134" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+        <v>452</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -8039,16 +8084,16 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>427</v>
@@ -8081,20 +8126,26 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -8117,16 +8168,14 @@
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>472</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -8153,16 +8202,14 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -8189,20 +8236,26 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -8225,16 +8278,16 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -8261,16 +8314,16 @@
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -8296,10 +8349,18 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -8325,26 +8386,20 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -8367,26 +8422,20 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -8409,26 +8458,20 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -8450,25 +8493,13 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -8491,16 +8522,16 @@
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>495</v>
@@ -8533,16 +8564,16 @@
     </row>
     <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>495</v>
@@ -8575,18 +8606,26 @@
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B149" s="1"/>
+        <v>502</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="C149" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -8609,18 +8648,24 @@
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1" t="s">
-        <v>519</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -8643,20 +8688,26 @@
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -8679,20 +8730,26 @@
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -8715,26 +8772,18 @@
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>530</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -8757,14 +8806,14 @@
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8791,14 +8840,16 @@
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B155" s="1"/>
+        <v>521</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="C155" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8825,14 +8876,16 @@
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B156" s="1"/>
+        <v>525</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="C156" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8859,10 +8912,10 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>82</v>
@@ -8901,14 +8954,14 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8935,14 +8988,14 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>94</v>
+        <v>534</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -8969,26 +9022,18 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>548</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -9011,10 +9056,10 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>82</v>
@@ -9053,14 +9098,14 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -9087,14 +9132,14 @@
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>556</v>
+        <v>94</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -9121,19 +9166,19 @@
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>496</v>
@@ -9163,20 +9208,26 @@
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -9199,16 +9250,14 @@
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>567</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -9235,16 +9284,14 @@
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>571</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -9271,20 +9318,26 @@
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -9307,15 +9360,17 @@
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -9341,26 +9396,20 @@
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -9383,26 +9432,20 @@
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -9425,26 +9468,20 @@
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -9467,11 +9504,13 @@
     </row>
     <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B173" s="1"/>
+        <v>578</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="C173" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="1"/>
@@ -9499,16 +9538,26 @@
     </row>
     <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>581</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="C174" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -9531,16 +9580,26 @@
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B175" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="C175" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -9562,14 +9621,26 @@
       <c r="Z175" s="1"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C176" s="4" t="s">
+      <c r="A176" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9592,15 +9663,17 @@
       <c r="Z176" s="1"/>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>603</v>
-      </c>
+      <c r="A177" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -9622,15 +9695,17 @@
       <c r="Z177" s="1"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>606</v>
-      </c>
+      <c r="A178" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -9652,15 +9727,17 @@
       <c r="Z178" s="1"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="A179" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -9683,13 +9760,13 @@
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9713,13 +9790,13 @@
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9743,13 +9820,13 @@
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>836</v>
+        <v>605</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9772,14 +9849,14 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="8" t="s">
-        <v>837</v>
+      <c r="A183" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>838</v>
+        <v>608</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -9802,14 +9879,14 @@
       <c r="Z183" s="1"/>
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="8" t="s">
-        <v>839</v>
+      <c r="A184" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>840</v>
+        <v>611</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -9832,14 +9909,14 @@
       <c r="Z184" s="1"/>
     </row>
     <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="8" t="s">
-        <v>841</v>
+      <c r="A185" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>842</v>
+        <v>614</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -9862,6 +9939,15 @@
       <c r="Z185" s="1"/>
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>836</v>
+      </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -9883,26 +9969,14 @@
       <c r="Z186" s="1"/>
     </row>
     <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>623</v>
+      <c r="A187" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -9925,21 +9999,15 @@
       <c r="Z187" s="1"/>
     </row>
     <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="A188" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>840</v>
+      </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -9961,21 +10029,15 @@
       <c r="Z188" s="1"/>
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="A189" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>842</v>
+      </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -9997,21 +10059,6 @@
       <c r="Z189" s="1"/>
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -10033,11 +10080,11 @@
       <c r="Z190" s="1"/>
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>633</v>
+      <c r="A191" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>82</v>
@@ -10046,7 +10093,7 @@
         <v>82</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>622</v>
@@ -10076,16 +10123,16 @@
     </row>
     <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -10111,17 +10158,17 @@
       <c r="Z192" s="1"/>
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>639</v>
+      <c r="A193" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>846</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -10147,17 +10194,17 @@
       <c r="Z193" s="1"/>
     </row>
     <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>643</v>
+      <c r="A194" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>848</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -10184,20 +10231,26 @@
     </row>
     <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>648</v>
+        <v>82</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -10220,16 +10273,16 @@
     </row>
     <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -10256,16 +10309,16 @@
     </row>
     <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -10292,16 +10345,16 @@
     </row>
     <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -10328,26 +10381,20 @@
     </row>
     <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -10370,16 +10417,16 @@
     </row>
     <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -10406,16 +10453,16 @@
     </row>
     <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -10442,16 +10489,16 @@
     </row>
     <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -10478,20 +10525,26 @@
     </row>
     <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -10514,16 +10567,16 @@
     </row>
     <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -10550,16 +10603,16 @@
     </row>
     <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -10586,24 +10639,20 @@
     </row>
     <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B206" s="1"/>
+        <v>672</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="C206" s="1" t="s">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -10626,14 +10675,16 @@
     </row>
     <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B207" s="1"/>
+        <v>676</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="C207" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -10660,14 +10711,16 @@
     </row>
     <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B208" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="C208" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -10694,15 +10747,17 @@
     </row>
     <row r="209" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D209" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -10728,18 +10783,24 @@
     </row>
     <row r="210" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>697</v>
+        <v>82</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -10762,14 +10823,14 @@
     </row>
     <row r="211" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -10796,14 +10857,14 @@
     </row>
     <row r="212" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -10830,15 +10891,15 @@
     </row>
     <row r="213" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B213" s="1"/>
+        <v>694</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="C213" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>707</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D213" s="2"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -10864,16 +10925,14 @@
     </row>
     <row r="214" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>709</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="B214" s="1"/>
       <c r="C214" s="1" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -10900,16 +10959,14 @@
     </row>
     <row r="215" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -10936,16 +10993,14 @@
     </row>
     <row r="216" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>717</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -10972,15 +11027,15 @@
     </row>
     <row r="217" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>721</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D217" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -11006,14 +11061,16 @@
     </row>
     <row r="218" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B218" s="1"/>
+        <v>708</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="C218" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -11040,14 +11097,16 @@
     </row>
     <row r="219" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B219" s="1"/>
+        <v>712</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="C219" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -11074,24 +11133,20 @@
     </row>
     <row r="220" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B220" s="1"/>
+        <v>716</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="C220" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>731</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -11114,17 +11169,15 @@
     </row>
     <row r="221" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C221" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>734</v>
-      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -11150,13 +11203,15 @@
     </row>
     <row r="222" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B222" s="1"/>
-      <c r="C222" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="D222" s="2"/>
+      <c r="C222" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -11182,13 +11237,15 @@
     </row>
     <row r="223" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="D223" s="2"/>
+      <c r="C223" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>726</v>
+      </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -11213,13 +11270,25 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
+      <c r="C224" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -11242,26 +11311,20 @@
     </row>
     <row r="225" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C225" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -11284,17 +11347,13 @@
     </row>
     <row r="226" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>744</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -11320,17 +11379,13 @@
     </row>
     <row r="227" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>748</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D227" s="2"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -11355,18 +11410,10 @@
       <c r="Z227" s="1"/>
     </row>
     <row r="228" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>752</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="2"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -11392,20 +11439,26 @@
     </row>
     <row r="229" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>755</v>
+        <v>82</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -11428,24 +11481,20 @@
     </row>
     <row r="230" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B230" s="1"/>
+        <v>741</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>742</v>
+      </c>
       <c r="C230" s="1" t="s">
-        <v>82</v>
+        <v>743</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -11468,16 +11517,16 @@
     </row>
     <row r="231" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>216</v>
+        <v>745</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -11504,16 +11553,16 @@
     </row>
     <row r="232" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -11540,16 +11589,16 @@
     </row>
     <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>219</v>
+        <v>753</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -11576,20 +11625,24 @@
     </row>
     <row r="234" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>769</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>770</v>
+        <v>82</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -11612,16 +11665,16 @@
     </row>
     <row r="235" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>772</v>
+        <v>216</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -11648,16 +11701,16 @@
     </row>
     <row r="236" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -11684,24 +11737,20 @@
     </row>
     <row r="237" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B237" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="C237" s="1" t="s">
-        <v>82</v>
+        <v>766</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -11724,14 +11773,16 @@
     </row>
     <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B238" s="1"/>
+        <v>768</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="C238" s="1" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -11758,14 +11809,16 @@
     </row>
     <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B239" s="1"/>
+        <v>772</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="C239" s="1" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -11792,26 +11845,20 @@
     </row>
     <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -11834,7 +11881,7 @@
     </row>
     <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
@@ -11874,14 +11921,14 @@
     </row>
     <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -11908,14 +11955,14 @@
     </row>
     <row r="243" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -11942,18 +11989,26 @@
     </row>
     <row r="244" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B244" s="1"/>
+        <v>788</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="C244" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
+        <v>791</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -11976,18 +12031,24 @@
     </row>
     <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
-        <v>803</v>
+        <v>82</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -12010,14 +12071,14 @@
     </row>
     <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -12044,24 +12105,18 @@
     </row>
     <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>82</v>
+        <v>797</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -12084,14 +12139,14 @@
     </row>
     <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -12118,14 +12173,14 @@
     </row>
     <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>374</v>
+        <v>802</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -12152,24 +12207,18 @@
     </row>
     <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -12192,17 +12241,17 @@
     </row>
     <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
-        <v>818</v>
+        <v>82</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>819</v>
+        <v>82</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>820</v>
+        <v>781</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>739</v>
@@ -12232,24 +12281,18 @@
     </row>
     <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -12272,24 +12315,18 @@
     </row>
     <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>824</v>
+        <v>374</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -12312,17 +12349,17 @@
     </row>
     <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>820</v>
+        <v>781</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>739</v>
@@ -12352,14 +12389,14 @@
     </row>
     <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>820</v>
@@ -12392,14 +12429,14 @@
     </row>
     <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>820</v>
@@ -12431,13 +12468,25 @@
       <c r="Z256" s="1"/>
     </row>
     <row r="257" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
+      <c r="C257" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -12459,13 +12508,25 @@
       <c r="Z257" s="1"/>
     </row>
     <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
+      <c r="C258" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -12487,13 +12548,25 @@
       <c r="Z258" s="1"/>
     </row>
     <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -12515,13 +12588,25 @@
       <c r="Z259" s="1"/>
     </row>
     <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>833</v>
+      </c>
       <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -33626,6 +33711,118 @@
       <c r="Y1013" s="1"/>
       <c r="Z1013" s="1"/>
     </row>
+    <row r="1014" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1"/>
+      <c r="I1014" s="1"/>
+      <c r="J1014" s="1"/>
+      <c r="K1014" s="1"/>
+      <c r="L1014" s="1"/>
+      <c r="M1014" s="1"/>
+      <c r="N1014" s="1"/>
+      <c r="O1014" s="1"/>
+      <c r="P1014" s="1"/>
+      <c r="Q1014" s="1"/>
+      <c r="R1014" s="1"/>
+      <c r="S1014" s="1"/>
+      <c r="T1014" s="1"/>
+      <c r="U1014" s="1"/>
+      <c r="V1014" s="1"/>
+      <c r="W1014" s="1"/>
+      <c r="X1014" s="1"/>
+      <c r="Y1014" s="1"/>
+      <c r="Z1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+      <c r="Z1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="1"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+      <c r="I1016" s="1"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+      <c r="Z1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A16:B16"/>

--- a/钢石世界 重要地点.xlsx
+++ b/钢石世界 重要地点.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BW-Server\General (RAID5)\FlazeSky105\MC\指令\WoSR TP Book\WoSR_TP_Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F4381B-6822-4751-8D0E-25BF32C33E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C066AF-80FA-4D0D-9BC9-C950D65B7ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="15975" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="929">
   <si>
     <t>地点</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Steelrock Square</t>
   </si>
   <si>
-    <t>/tp @p 1382 64 1763</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -1197,18 +1194,6 @@
     <t>326</t>
   </si>
   <si>
-    <t>南方帝国</t>
-  </si>
-  <si>
-    <t>The Forgotten Empire</t>
-  </si>
-  <si>
-    <t>/tp @p -4851 65 9124</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>银橡树区</t>
   </si>
   <si>
@@ -1266,9 +1251,6 @@
     <t>Imperial City</t>
   </si>
   <si>
-    <t>/tp @p -1999 20 11148</t>
-  </si>
-  <si>
     <t>405</t>
   </si>
   <si>
@@ -1923,13 +1905,7 @@
     <t>703</t>
   </si>
   <si>
-    <t>玛突波利斯</t>
-  </si>
-  <si>
     <t>Mattupolis</t>
-  </si>
-  <si>
-    <t>玛突波利斯区</t>
   </si>
   <si>
     <t>北郊站</t>
@@ -2646,6 +2622,290 @@
   </si>
   <si>
     <t>Sea-of-Stars Control Center</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翘英庄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p 21886 91 12527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗龙埠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p 22128 122 11904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉光圣所</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shrine of Aqualis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -8162 65 15182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门村</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Westgate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -10402 67 14091</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -11331 69 15926</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calimport</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡林港</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -12854 65 12939</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luskan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆斯坎港</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winterkeep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -6899 66 13006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都 冬守城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hordelands</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄之地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p 1382 64 1763</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nar'Thalos</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -7132 145 16672</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -3861 121 13832</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Springs Village</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温泉村</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -3190 65 14190</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Island of Kurast</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oldbourne City</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -5519 65 13469</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemdale Port</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>古都奥德伯恩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -4944 64 15138</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keshari City</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>克沙城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海姆德港</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drobnovia</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -6321 65 11302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alzir City</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔济城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -4960 65 11439</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital: Drobnovia City</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -4874 91 10105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fordingham</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗丁翰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -6271 133 9954</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot Springs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方基地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛丘波利斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛丘波利斯区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>德罗布诺维亚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙岛纳尔萨洛斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库拉斯特</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国礼拜堂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -2567 65 10870</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大俾斯麦广场</t>
+  </si>
+  <si>
+    <t>/tp @p -2029 71 10538</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟塔</t>
+  </si>
+  <si>
+    <t>/tp @p -2357 71 10145</t>
+  </si>
+  <si>
+    <t>总务市政厅</t>
+  </si>
+  <si>
+    <t>/tp @p -1449 71 10475</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白夜之城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitenight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -1344 106 12454</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖畔路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -2069 73 12814</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tp @p -1917 297 12603</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2746,13 +3006,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,18 +3230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1017"/>
+  <dimension ref="A1:Z1041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.26953125" customWidth="1"/>
     <col min="2" max="2" width="41.81640625" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" customWidth="1"/>
@@ -3019,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3">
-        <v>45331</v>
+        <v>45339</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3045,20 +3305,20 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3082,25 +3342,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3124,25 +3384,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3166,25 +3426,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3208,25 +3468,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3250,25 +3510,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3293,22 +3553,22 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3332,25 +3592,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3374,25 +3634,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3416,25 +3676,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3458,25 +3718,25 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3500,25 +3760,25 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3542,25 +3802,25 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3584,25 +3844,25 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3625,24 +3885,24 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3665,24 +3925,24 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3706,25 +3966,25 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3748,25 +4008,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3818,25 +4078,25 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3860,16 +4120,16 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3896,16 +4156,16 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3932,16 +4192,16 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3968,16 +4228,16 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4004,16 +4264,16 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4040,16 +4300,16 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4076,25 +4336,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4118,25 +4378,25 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -4160,25 +4420,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -4202,25 +4462,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -4244,16 +4504,16 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -4280,16 +4540,16 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4316,16 +4576,16 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4352,16 +4612,16 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4388,16 +4648,16 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4424,16 +4684,16 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4460,16 +4720,16 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4496,25 +4756,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4538,16 +4798,16 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4574,16 +4834,16 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4610,16 +4870,16 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4646,16 +4906,16 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4682,16 +4942,16 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4718,16 +4978,16 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4754,10 +5014,10 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -4786,16 +5046,16 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>855</v>
+        <v>846</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4822,16 +5082,16 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>864</v>
-      </c>
       <c r="C48" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>860</v>
+        <v>849</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>852</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4858,16 +5118,16 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>861</v>
+        <v>851</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4922,25 +5182,25 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4964,25 +5224,25 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5006,25 +5266,25 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5048,25 +5308,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -5090,25 +5350,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -5132,14 +5392,14 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5166,14 +5426,14 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5200,14 +5460,14 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5234,16 +5494,16 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5270,25 +5530,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5312,14 +5572,14 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5346,14 +5606,14 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5380,14 +5640,14 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5414,14 +5674,14 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5448,25 +5708,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5490,25 +5750,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5532,25 +5792,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5574,25 +5834,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5616,25 +5876,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5658,25 +5918,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="E70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5700,25 +5960,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="E71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5742,25 +6002,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="E72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5784,25 +6044,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5854,25 +6114,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5896,25 +6156,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="E76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5938,25 +6198,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="E77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5980,25 +6240,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="E78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -6022,25 +6282,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -6064,25 +6324,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="E80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6106,25 +6366,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6148,25 +6408,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6190,25 +6450,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="E83" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6232,25 +6492,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6274,25 +6534,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="E85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6316,25 +6576,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="E86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6358,25 +6618,25 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="E87" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6400,23 +6660,23 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6440,25 +6700,25 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6482,14 +6742,14 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6516,14 +6776,14 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -6550,14 +6810,14 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -6584,25 +6844,25 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6626,25 +6886,25 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6668,13 +6928,13 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
@@ -6702,13 +6962,13 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
@@ -6736,13 +6996,13 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
@@ -6770,11 +7030,11 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
@@ -6802,11 +7062,11 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
@@ -6834,16 +7094,16 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -6870,14 +7130,14 @@
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -6904,14 +7164,14 @@
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -6938,14 +7198,14 @@
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -6972,16 +7232,16 @@
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -7008,16 +7268,16 @@
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -7044,16 +7304,16 @@
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -7080,16 +7340,16 @@
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -7116,14 +7376,14 @@
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -7150,14 +7410,14 @@
     </row>
     <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -7184,16 +7444,16 @@
     </row>
     <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -7220,14 +7480,14 @@
     </row>
     <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -7254,14 +7514,14 @@
     </row>
     <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -7288,14 +7548,14 @@
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -7349,26 +7609,24 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -7391,27 +7649,19 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="A116" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -7433,18 +7683,16 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="A117" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -7469,18 +7717,16 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>406</v>
-      </c>
+      <c r="A118" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -7505,18 +7751,16 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="A119" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -7541,27 +7785,19 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="A120" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -7583,18 +7819,16 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A121" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -7619,12 +7853,14 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
-        <v>418</v>
+      <c r="A122" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>882</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="1"/>
@@ -7651,12 +7887,14 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
-        <v>420</v>
+      <c r="A123" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>888</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="1"/>
@@ -7683,12 +7921,14 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1" t="s">
-        <v>422</v>
+      <c r="A124" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>891</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="1"/>
@@ -7715,12 +7955,14 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1" t="s">
-        <v>424</v>
+      <c r="A125" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="1"/>
@@ -7747,9 +7989,15 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -7775,27 +8023,19 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A127" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -7817,18 +8057,16 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="A128" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -7853,18 +8091,16 @@
       <c r="Z128" s="1"/>
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>437</v>
-      </c>
+      <c r="A129" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="D129" s="2"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -7889,27 +8125,19 @@
       <c r="Z129" s="1"/>
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A130" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -7931,27 +8159,19 @@
       <c r="Z130" s="1"/>
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A131" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -7974,18 +8194,26 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -8008,14 +8236,16 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -8042,26 +8272,20 @@
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -8084,26 +8308,20 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -8126,25 +8344,25 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>82</v>
+        <v>407</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -8167,16 +8385,14 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>459</v>
+      <c r="A137" s="7" t="s">
+        <v>913</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="C137" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -8202,15 +8418,13 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>462</v>
+        <v>916</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="C138" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -8236,26 +8450,16 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>466</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -8278,17 +8482,13 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>470</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -8314,16 +8514,16 @@
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -8350,17 +8550,13 @@
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>478</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -8386,17 +8582,13 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>480</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>482</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -8422,17 +8614,13 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>484</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>486</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -8458,17 +8646,13 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>488</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>490</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -8493,9 +8677,15 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>915</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -8522,26 +8712,16 @@
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -8563,27 +8743,17 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A148" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -8605,27 +8775,17 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A149" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -8647,25 +8807,13 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -8688,25 +8836,25 @@
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>495</v>
+        <v>421</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8730,26 +8878,20 @@
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>514</v>
+        <v>425</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -8772,14 +8914,16 @@
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B153" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="C153" s="1" t="s">
-        <v>516</v>
+        <v>430</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>517</v>
+        <v>431</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8806,18 +8950,26 @@
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>432</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="C154" s="1" t="s">
-        <v>519</v>
+        <v>434</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+        <v>435</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -8840,20 +8992,26 @@
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>521</v>
+        <v>436</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>522</v>
+        <v>437</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -8876,16 +9034,14 @@
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>526</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8912,26 +9068,18 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>530</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -8954,18 +9102,26 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B158" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="C158" s="1" t="s">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -8988,18 +9144,26 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B159" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="C159" s="1" t="s">
-        <v>535</v>
+        <v>449</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -9022,18 +9186,26 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>451</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="C160" s="1" t="s">
-        <v>538</v>
+        <v>81</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -9056,26 +9228,18 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>541</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -9098,14 +9262,14 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>543</v>
+        <v>457</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>544</v>
+        <v>458</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -9132,18 +9296,26 @@
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B163" s="1"/>
+        <v>459</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="C163" s="1" t="s">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -9166,26 +9338,20 @@
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>547</v>
+        <v>461</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>548</v>
+        <v>462</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>549</v>
+        <v>463</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -9208,26 +9374,20 @@
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>551</v>
+        <v>465</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -9250,14 +9410,16 @@
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B166" s="1"/>
+        <v>469</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="C166" s="1" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -9284,14 +9446,16 @@
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B167" s="1"/>
+        <v>473</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="C167" s="1" t="s">
-        <v>557</v>
+        <v>475</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>558</v>
+        <v>476</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -9318,26 +9482,20 @@
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -9360,16 +9518,16 @@
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>564</v>
+        <v>483</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>565</v>
+        <v>484</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -9395,18 +9553,10 @@
       <c r="Z169" s="1"/>
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>569</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -9432,20 +9582,26 @@
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>572</v>
+        <v>487</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+        <v>488</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -9468,20 +9624,26 @@
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+        <v>495</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -9504,18 +9666,26 @@
     </row>
     <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>579</v>
+        <v>497</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -9538,25 +9708,23 @@
     </row>
     <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>583</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C174" s="1"/>
       <c r="D174" s="2" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -9580,25 +9748,25 @@
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>586</v>
+        <v>504</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9622,25 +9790,25 @@
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>589</v>
+        <v>507</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>590</v>
+        <v>508</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>592</v>
+        <v>489</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9664,13 +9832,15 @@
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D177" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -9696,13 +9866,15 @@
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>595</v>
+        <v>512</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -9728,13 +9900,17 @@
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B179" s="1"/>
+        <v>515</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="C179" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D179" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -9759,15 +9935,21 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A180" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -9789,14 +9971,26 @@
       <c r="Z180" s="1"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>603</v>
+      <c r="A181" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9819,15 +10013,19 @@
       <c r="Z181" s="1"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>606</v>
-      </c>
+      <c r="A182" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -9849,15 +10047,19 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>609</v>
-      </c>
+      <c r="A183" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -9879,15 +10081,19 @@
       <c r="Z183" s="1"/>
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>612</v>
-      </c>
+      <c r="A184" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -9909,14 +10115,26 @@
       <c r="Z184" s="1"/>
     </row>
     <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>615</v>
+      <c r="A185" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -9939,15 +10157,19 @@
       <c r="Z185" s="1"/>
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>836</v>
-      </c>
+      <c r="A186" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -9969,15 +10191,19 @@
       <c r="Z186" s="1"/>
     </row>
     <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>838</v>
-      </c>
+      <c r="A187" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -9999,14 +10225,26 @@
       <c r="Z187" s="1"/>
     </row>
     <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>840</v>
+      <c r="A188" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -10029,14 +10267,26 @@
       <c r="Z188" s="1"/>
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>842</v>
+      <c r="A189" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -10059,6 +10309,19 @@
       <c r="Z189" s="1"/>
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -10080,27 +10343,19 @@
       <c r="Z190" s="1"/>
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>844</v>
-      </c>
+      <c r="A191" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>82</v>
+        <v>551</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -10123,20 +10378,26 @@
     </row>
     <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>624</v>
+        <v>553</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>625</v>
+        <v>554</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -10158,17 +10419,17 @@
       <c r="Z192" s="1"/>
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>846</v>
+      <c r="A193" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>628</v>
+        <v>558</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -10194,17 +10455,17 @@
       <c r="Z193" s="1"/>
     </row>
     <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>848</v>
+      <c r="A194" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>631</v>
+        <v>563</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -10231,26 +10492,20 @@
     </row>
     <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>632</v>
+        <v>564</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -10273,16 +10528,16 @@
     </row>
     <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>635</v>
+        <v>568</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -10309,17 +10564,15 @@
     </row>
     <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>641</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D197" s="2"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -10345,20 +10598,26 @@
     </row>
     <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+        <v>578</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -10381,20 +10640,26 @@
     </row>
     <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -10417,20 +10682,26 @@
     </row>
     <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>652</v>
+        <v>81</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -10453,17 +10724,13 @@
     </row>
     <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>655</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>657</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -10489,17 +10756,13 @@
     </row>
     <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>659</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>661</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D202" s="2"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -10525,26 +10788,16 @@
     </row>
     <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>663</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -10566,21 +10819,15 @@
       <c r="Z203" s="1"/>
     </row>
     <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
+      <c r="A204" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -10602,21 +10849,15 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
+      <c r="A205" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -10638,21 +10879,15 @@
       <c r="Z205" s="1"/>
     </row>
     <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="A206" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -10674,21 +10909,15 @@
       <c r="Z206" s="1"/>
     </row>
     <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
+      <c r="A207" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -10710,21 +10939,15 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+      <c r="A208" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -10746,21 +10969,15 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="A209" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -10782,24 +10999,14 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>623</v>
+      <c r="A210" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>828</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -10822,19 +11029,15 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
+      <c r="A211" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -10856,19 +11059,15 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
+      <c r="A212" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>832</v>
+      </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -10890,19 +11089,15 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
+      <c r="A213" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>834</v>
+      </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -10924,19 +11119,6 @@
       <c r="Z213" s="1"/>
     </row>
     <row r="214" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -10958,19 +11140,27 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B215" s="1"/>
+      <c r="A215" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>836</v>
+      </c>
       <c r="C215" s="1" t="s">
-        <v>700</v>
+        <v>81</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -10993,14 +11183,16 @@
     </row>
     <row r="216" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B216" s="1"/>
+        <v>618</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="C216" s="1" t="s">
-        <v>703</v>
+        <v>620</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -11026,15 +11218,17 @@
       <c r="Z216" s="1"/>
     </row>
     <row r="217" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B217" s="1"/>
+      <c r="A217" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>838</v>
+      </c>
       <c r="C217" s="1" t="s">
-        <v>706</v>
+        <v>622</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>707</v>
+        <v>623</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -11060,17 +11254,17 @@
       <c r="Z217" s="1"/>
     </row>
     <row r="218" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>709</v>
+      <c r="A218" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>840</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>710</v>
+        <v>624</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -11096,21 +11290,27 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>712</v>
+      <c r="A219" s="7" t="s">
+        <v>908</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>713</v>
+        <v>626</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>714</v>
+        <v>81</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -11133,16 +11333,16 @@
     </row>
     <row r="220" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>717</v>
+        <v>628</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>718</v>
+        <v>629</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>719</v>
+        <v>630</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -11169,15 +11369,17 @@
     </row>
     <row r="221" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>720</v>
+        <v>587</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>721</v>
+        <v>631</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D221" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -11203,14 +11405,16 @@
     </row>
     <row r="222" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B222" s="1"/>
+        <v>634</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="C222" s="1" t="s">
-        <v>723</v>
+        <v>636</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>724</v>
+        <v>637</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -11237,14 +11441,16 @@
     </row>
     <row r="223" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B223" s="1"/>
+        <v>638</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>639</v>
+      </c>
       <c r="C223" s="1" t="s">
-        <v>725</v>
+        <v>640</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>726</v>
+        <v>641</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -11271,24 +11477,20 @@
     </row>
     <row r="224" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B224" s="1"/>
+        <v>642</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="C224" s="1" t="s">
-        <v>728</v>
+        <v>644</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>731</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -11311,16 +11513,16 @@
     </row>
     <row r="225" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>82</v>
+        <v>647</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>734</v>
+        <v>649</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -11347,13 +11549,17 @@
     </row>
     <row r="226" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D226" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -11379,16 +11585,26 @@
     </row>
     <row r="227" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+        <v>654</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -11410,10 +11626,18 @@
       <c r="Z227" s="1"/>
     </row>
     <row r="228" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
+      <c r="A228" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -11439,26 +11663,20 @@
     </row>
     <row r="229" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>736</v>
+        <v>660</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -11481,16 +11699,16 @@
     </row>
     <row r="230" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>741</v>
+        <v>664</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>744</v>
+        <v>667</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -11517,16 +11735,16 @@
     </row>
     <row r="231" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>745</v>
+        <v>668</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>748</v>
+        <v>671</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -11553,16 +11771,16 @@
     </row>
     <row r="232" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>749</v>
+        <v>589</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>750</v>
+        <v>672</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>751</v>
+        <v>673</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>752</v>
+        <v>674</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -11589,16 +11807,16 @@
     </row>
     <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>754</v>
+        <v>676</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>755</v>
+        <v>677</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>756</v>
+        <v>678</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -11625,23 +11843,23 @@
     </row>
     <row r="234" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>757</v>
+        <v>679</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>738</v>
+        <v>183</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>739</v>
+        <v>616</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>740</v>
+        <v>617</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -11665,16 +11883,14 @@
     </row>
     <row r="235" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>758</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
-        <v>759</v>
+        <v>681</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>760</v>
+        <v>682</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -11701,16 +11917,14 @@
     </row>
     <row r="236" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>762</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B236" s="1"/>
       <c r="C236" s="1" t="s">
-        <v>763</v>
+        <v>684</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>764</v>
+        <v>685</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -11737,17 +11951,15 @@
     </row>
     <row r="237" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>219</v>
+        <v>686</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>765</v>
+        <v>687</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>767</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D237" s="2"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -11773,16 +11985,14 @@
     </row>
     <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>769</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="B238" s="1"/>
       <c r="C238" s="1" t="s">
-        <v>770</v>
+        <v>689</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>771</v>
+        <v>690</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -11809,16 +12019,14 @@
     </row>
     <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>773</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>774</v>
+        <v>692</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>775</v>
+        <v>693</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -11845,16 +12053,14 @@
     </row>
     <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>777</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>779</v>
+        <v>696</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -11881,24 +12087,18 @@
     </row>
     <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -11921,14 +12121,16 @@
     </row>
     <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B242" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>701</v>
+      </c>
       <c r="C242" s="1" t="s">
-        <v>783</v>
+        <v>702</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>784</v>
+        <v>703</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -11955,14 +12157,16 @@
     </row>
     <row r="243" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B243" s="1"/>
+        <v>704</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="C243" s="1" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -11989,26 +12193,20 @@
     </row>
     <row r="244" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>789</v>
+        <v>709</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -12031,24 +12229,18 @@
     </row>
     <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B245" s="1"/>
+        <v>712</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="C245" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -12071,14 +12263,14 @@
     </row>
     <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>793</v>
+        <v>714</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>794</v>
+        <v>715</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>795</v>
+        <v>716</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -12105,14 +12297,14 @@
     </row>
     <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>796</v>
+        <v>348</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>798</v>
+        <v>718</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -12139,18 +12331,24 @@
     </row>
     <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
+        <v>721</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>723</v>
+      </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -12173,14 +12371,16 @@
     </row>
     <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1" t="s">
-        <v>803</v>
+        <v>724</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>804</v>
+        <v>726</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -12207,15 +12407,13 @@
     </row>
     <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>805</v>
+        <v>727</v>
       </c>
       <c r="B250" s="1"/>
-      <c r="C250" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>807</v>
-      </c>
+      <c r="C250" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="D250" s="2"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -12241,24 +12439,16 @@
     </row>
     <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>808</v>
+        <v>381</v>
       </c>
       <c r="B251" s="1"/>
-      <c r="C251" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="C251" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -12280,16 +12470,10 @@
       <c r="Z251" s="1"/>
     </row>
     <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
-        <v>809</v>
-      </c>
+      <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>811</v>
-      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="2"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -12315,18 +12499,26 @@
     </row>
     <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B253" s="1"/>
+        <v>728</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="C253" s="1" t="s">
-        <v>812</v>
+        <v>81</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -12349,24 +12541,20 @@
     </row>
     <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B254" s="1"/>
+        <v>733</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="C254" s="1" t="s">
-        <v>815</v>
+        <v>735</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -12389,24 +12577,20 @@
     </row>
     <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B255" s="1"/>
+        <v>737</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>738</v>
+      </c>
       <c r="C255" s="1" t="s">
-        <v>818</v>
+        <v>739</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G255" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -12429,24 +12613,20 @@
     </row>
     <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B256" s="1"/>
+        <v>741</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>742</v>
+      </c>
       <c r="C256" s="1" t="s">
-        <v>822</v>
+        <v>743</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -12469,24 +12649,20 @@
     </row>
     <row r="257" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B257" s="1"/>
+        <v>745</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="C257" s="1" t="s">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -12509,23 +12685,23 @@
     </row>
     <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
-        <v>828</v>
+        <v>81</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>829</v>
+        <v>81</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>820</v>
+        <v>730</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -12549,24 +12725,20 @@
     </row>
     <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B259" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="C259" s="1" t="s">
-        <v>831</v>
+        <v>751</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -12589,24 +12761,20 @@
     </row>
     <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B260" s="1"/>
+        <v>753</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="C260" s="1" t="s">
-        <v>834</v>
+        <v>755</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -12628,10 +12796,18 @@
       <c r="Z260" s="1"/>
     </row>
     <row r="261" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="2"/>
+      <c r="A261" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -12656,10 +12832,18 @@
       <c r="Z261" s="1"/>
     </row>
     <row r="262" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="2"/>
+      <c r="A262" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -12684,10 +12868,18 @@
       <c r="Z262" s="1"/>
     </row>
     <row r="263" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="2"/>
+      <c r="A263" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -12712,10 +12904,18 @@
       <c r="Z263" s="1"/>
     </row>
     <row r="264" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="2"/>
+      <c r="A264" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -12740,13 +12940,25 @@
       <c r="Z264" s="1"/>
     </row>
     <row r="265" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
+      <c r="C265" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -12768,10 +12980,16 @@
       <c r="Z265" s="1"/>
     </row>
     <row r="266" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="2"/>
+      <c r="C266" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>776</v>
+      </c>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -12796,10 +13014,16 @@
       <c r="Z266" s="1"/>
     </row>
     <row r="267" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1" t="s">
+        <v>777</v>
+      </c>
       <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="2"/>
+      <c r="C267" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -12824,13 +13048,27 @@
       <c r="Z267" s="1"/>
     </row>
     <row r="268" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
+      <c r="A268" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -12852,13 +13090,25 @@
       <c r="Z268" s="1"/>
     </row>
     <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1" t="s">
+        <v>784</v>
+      </c>
       <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
+      <c r="C269" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -12880,10 +13130,16 @@
       <c r="Z269" s="1"/>
     </row>
     <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="2"/>
+      <c r="C270" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -12908,10 +13164,16 @@
       <c r="Z270" s="1"/>
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="2"/>
+      <c r="C271" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>790</v>
+      </c>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -12936,10 +13198,16 @@
       <c r="Z271" s="1"/>
     </row>
     <row r="272" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="2"/>
+      <c r="C272" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -12964,10 +13232,16 @@
       <c r="Z272" s="1"/>
     </row>
     <row r="273" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1" t="s">
+        <v>794</v>
+      </c>
       <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="2"/>
+      <c r="C273" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -12992,10 +13266,16 @@
       <c r="Z273" s="1"/>
     </row>
     <row r="274" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>797</v>
+      </c>
       <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="2"/>
+      <c r="C274" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>799</v>
+      </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -13020,13 +13300,25 @@
       <c r="Z274" s="1"/>
     </row>
     <row r="275" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1" t="s">
+        <v>800</v>
+      </c>
       <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
+      <c r="C275" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -13048,10 +13340,16 @@
       <c r="Z275" s="1"/>
     </row>
     <row r="276" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="2"/>
+      <c r="C276" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -13076,10 +13374,16 @@
       <c r="Z276" s="1"/>
     </row>
     <row r="277" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="2"/>
+      <c r="C277" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -13104,13 +13408,25 @@
       <c r="Z277" s="1"/>
     </row>
     <row r="278" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
+      <c r="C278" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -13132,13 +13448,25 @@
       <c r="Z278" s="1"/>
     </row>
     <row r="279" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1" t="s">
+        <v>809</v>
+      </c>
       <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="C279" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -13160,13 +13488,25 @@
       <c r="Z279" s="1"/>
     </row>
     <row r="280" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
+      <c r="C280" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -13188,13 +13528,25 @@
       <c r="Z280" s="1"/>
     </row>
     <row r="281" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1" t="s">
+        <v>816</v>
+      </c>
       <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="C281" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -13216,13 +13568,25 @@
       <c r="Z281" s="1"/>
     </row>
     <row r="282" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1" t="s">
+        <v>819</v>
+      </c>
       <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
+      <c r="C282" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -13244,13 +13608,25 @@
       <c r="Z282" s="1"/>
     </row>
     <row r="283" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1" t="s">
+        <v>822</v>
+      </c>
       <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
+      <c r="C283" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -13272,13 +13648,25 @@
       <c r="Z283" s="1"/>
     </row>
     <row r="284" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1" t="s">
+        <v>825</v>
+      </c>
       <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
+      <c r="C284" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -13300,9 +13688,13 @@
       <c r="Z284" s="1"/>
     </row>
     <row r="285" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="1"/>
+      <c r="A285" s="7" t="s">
+        <v>857</v>
+      </c>
       <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="C285" s="7" t="s">
+        <v>858</v>
+      </c>
       <c r="D285" s="2"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -13328,9 +13720,13 @@
       <c r="Z285" s="1"/>
     </row>
     <row r="286" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="1"/>
+      <c r="A286" s="7" t="s">
+        <v>859</v>
+      </c>
       <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="C286" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="D286" s="2"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -33823,6 +34219,678 @@
       <c r="Y1017" s="1"/>
       <c r="Z1017" s="1"/>
     </row>
+    <row r="1018" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="1"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1"/>
+      <c r="I1019" s="1"/>
+      <c r="J1019" s="1"/>
+      <c r="K1019" s="1"/>
+      <c r="L1019" s="1"/>
+      <c r="M1019" s="1"/>
+      <c r="N1019" s="1"/>
+      <c r="O1019" s="1"/>
+      <c r="P1019" s="1"/>
+      <c r="Q1019" s="1"/>
+      <c r="R1019" s="1"/>
+      <c r="S1019" s="1"/>
+      <c r="T1019" s="1"/>
+      <c r="U1019" s="1"/>
+      <c r="V1019" s="1"/>
+      <c r="W1019" s="1"/>
+      <c r="X1019" s="1"/>
+      <c r="Y1019" s="1"/>
+      <c r="Z1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="1"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
+      <c r="I1020" s="1"/>
+      <c r="J1020" s="1"/>
+      <c r="K1020" s="1"/>
+      <c r="L1020" s="1"/>
+      <c r="M1020" s="1"/>
+      <c r="N1020" s="1"/>
+      <c r="O1020" s="1"/>
+      <c r="P1020" s="1"/>
+      <c r="Q1020" s="1"/>
+      <c r="R1020" s="1"/>
+      <c r="S1020" s="1"/>
+      <c r="T1020" s="1"/>
+      <c r="U1020" s="1"/>
+      <c r="V1020" s="1"/>
+      <c r="W1020" s="1"/>
+      <c r="X1020" s="1"/>
+      <c r="Y1020" s="1"/>
+      <c r="Z1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="1"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
+      <c r="I1021" s="1"/>
+      <c r="J1021" s="1"/>
+      <c r="K1021" s="1"/>
+      <c r="L1021" s="1"/>
+      <c r="M1021" s="1"/>
+      <c r="N1021" s="1"/>
+      <c r="O1021" s="1"/>
+      <c r="P1021" s="1"/>
+      <c r="Q1021" s="1"/>
+      <c r="R1021" s="1"/>
+      <c r="S1021" s="1"/>
+      <c r="T1021" s="1"/>
+      <c r="U1021" s="1"/>
+      <c r="V1021" s="1"/>
+      <c r="W1021" s="1"/>
+      <c r="X1021" s="1"/>
+      <c r="Y1021" s="1"/>
+      <c r="Z1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="1"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="1"/>
+      <c r="J1022" s="1"/>
+      <c r="K1022" s="1"/>
+      <c r="L1022" s="1"/>
+      <c r="M1022" s="1"/>
+      <c r="N1022" s="1"/>
+      <c r="O1022" s="1"/>
+      <c r="P1022" s="1"/>
+      <c r="Q1022" s="1"/>
+      <c r="R1022" s="1"/>
+      <c r="S1022" s="1"/>
+      <c r="T1022" s="1"/>
+      <c r="U1022" s="1"/>
+      <c r="V1022" s="1"/>
+      <c r="W1022" s="1"/>
+      <c r="X1022" s="1"/>
+      <c r="Y1022" s="1"/>
+      <c r="Z1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="1"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="1"/>
+      <c r="J1023" s="1"/>
+      <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
+      <c r="O1023" s="1"/>
+      <c r="P1023" s="1"/>
+      <c r="Q1023" s="1"/>
+      <c r="R1023" s="1"/>
+      <c r="S1023" s="1"/>
+      <c r="T1023" s="1"/>
+      <c r="U1023" s="1"/>
+      <c r="V1023" s="1"/>
+      <c r="W1023" s="1"/>
+      <c r="X1023" s="1"/>
+      <c r="Y1023" s="1"/>
+      <c r="Z1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
+      <c r="C1024" s="1"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="1"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="1"/>
+      <c r="J1024" s="1"/>
+      <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
+      <c r="O1024" s="1"/>
+      <c r="P1024" s="1"/>
+      <c r="Q1024" s="1"/>
+      <c r="R1024" s="1"/>
+      <c r="S1024" s="1"/>
+      <c r="T1024" s="1"/>
+      <c r="U1024" s="1"/>
+      <c r="V1024" s="1"/>
+      <c r="W1024" s="1"/>
+      <c r="X1024" s="1"/>
+      <c r="Y1024" s="1"/>
+      <c r="Z1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="1"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="1"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="1"/>
+      <c r="J1025" s="1"/>
+      <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
+      <c r="P1025" s="1"/>
+      <c r="Q1025" s="1"/>
+      <c r="R1025" s="1"/>
+      <c r="S1025" s="1"/>
+      <c r="T1025" s="1"/>
+      <c r="U1025" s="1"/>
+      <c r="V1025" s="1"/>
+      <c r="W1025" s="1"/>
+      <c r="X1025" s="1"/>
+      <c r="Y1025" s="1"/>
+      <c r="Z1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="1"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="1"/>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="1"/>
+      <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+      <c r="Z1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="1"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="1"/>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1"/>
+      <c r="I1027" s="1"/>
+      <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="1"/>
+      <c r="B1028" s="1"/>
+      <c r="C1028" s="1"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="1"/>
+      <c r="F1028" s="1"/>
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1"/>
+      <c r="K1028" s="1"/>
+      <c r="L1028" s="1"/>
+      <c r="M1028" s="1"/>
+      <c r="N1028" s="1"/>
+      <c r="O1028" s="1"/>
+      <c r="P1028" s="1"/>
+      <c r="Q1028" s="1"/>
+      <c r="R1028" s="1"/>
+      <c r="S1028" s="1"/>
+      <c r="T1028" s="1"/>
+      <c r="U1028" s="1"/>
+      <c r="V1028" s="1"/>
+      <c r="W1028" s="1"/>
+      <c r="X1028" s="1"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="1"/>
+      <c r="B1029" s="1"/>
+      <c r="C1029" s="1"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="1"/>
+      <c r="F1029" s="1"/>
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1"/>
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1"/>
+      <c r="K1029" s="1"/>
+      <c r="L1029" s="1"/>
+      <c r="M1029" s="1"/>
+      <c r="N1029" s="1"/>
+      <c r="O1029" s="1"/>
+      <c r="P1029" s="1"/>
+      <c r="Q1029" s="1"/>
+      <c r="R1029" s="1"/>
+      <c r="S1029" s="1"/>
+      <c r="T1029" s="1"/>
+      <c r="U1029" s="1"/>
+      <c r="V1029" s="1"/>
+      <c r="W1029" s="1"/>
+      <c r="X1029" s="1"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="1"/>
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="1"/>
+      <c r="F1030" s="1"/>
+      <c r="G1030" s="1"/>
+      <c r="H1030" s="1"/>
+      <c r="I1030" s="1"/>
+      <c r="J1030" s="1"/>
+      <c r="K1030" s="1"/>
+      <c r="L1030" s="1"/>
+      <c r="M1030" s="1"/>
+      <c r="N1030" s="1"/>
+      <c r="O1030" s="1"/>
+      <c r="P1030" s="1"/>
+      <c r="Q1030" s="1"/>
+      <c r="R1030" s="1"/>
+      <c r="S1030" s="1"/>
+      <c r="T1030" s="1"/>
+      <c r="U1030" s="1"/>
+      <c r="V1030" s="1"/>
+      <c r="W1030" s="1"/>
+      <c r="X1030" s="1"/>
+      <c r="Y1030" s="1"/>
+      <c r="Z1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="1"/>
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="1"/>
+      <c r="F1031" s="1"/>
+      <c r="G1031" s="1"/>
+      <c r="H1031" s="1"/>
+      <c r="I1031" s="1"/>
+      <c r="J1031" s="1"/>
+      <c r="K1031" s="1"/>
+      <c r="L1031" s="1"/>
+      <c r="M1031" s="1"/>
+      <c r="N1031" s="1"/>
+      <c r="O1031" s="1"/>
+      <c r="P1031" s="1"/>
+      <c r="Q1031" s="1"/>
+      <c r="R1031" s="1"/>
+      <c r="S1031" s="1"/>
+      <c r="T1031" s="1"/>
+      <c r="U1031" s="1"/>
+      <c r="V1031" s="1"/>
+      <c r="W1031" s="1"/>
+      <c r="X1031" s="1"/>
+      <c r="Y1031" s="1"/>
+      <c r="Z1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="1"/>
+      <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1"/>
+      <c r="I1032" s="1"/>
+      <c r="J1032" s="1"/>
+      <c r="K1032" s="1"/>
+      <c r="L1032" s="1"/>
+      <c r="M1032" s="1"/>
+      <c r="N1032" s="1"/>
+      <c r="O1032" s="1"/>
+      <c r="P1032" s="1"/>
+      <c r="Q1032" s="1"/>
+      <c r="R1032" s="1"/>
+      <c r="S1032" s="1"/>
+      <c r="T1032" s="1"/>
+      <c r="U1032" s="1"/>
+      <c r="V1032" s="1"/>
+      <c r="W1032" s="1"/>
+      <c r="X1032" s="1"/>
+      <c r="Y1032" s="1"/>
+      <c r="Z1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="1"/>
+      <c r="F1033" s="1"/>
+      <c r="G1033" s="1"/>
+      <c r="H1033" s="1"/>
+      <c r="I1033" s="1"/>
+      <c r="J1033" s="1"/>
+      <c r="K1033" s="1"/>
+      <c r="L1033" s="1"/>
+      <c r="M1033" s="1"/>
+      <c r="N1033" s="1"/>
+      <c r="O1033" s="1"/>
+      <c r="P1033" s="1"/>
+      <c r="Q1033" s="1"/>
+      <c r="R1033" s="1"/>
+      <c r="S1033" s="1"/>
+      <c r="T1033" s="1"/>
+      <c r="U1033" s="1"/>
+      <c r="V1033" s="1"/>
+      <c r="W1033" s="1"/>
+      <c r="X1033" s="1"/>
+      <c r="Y1033" s="1"/>
+      <c r="Z1033" s="1"/>
+    </row>
+    <row r="1034" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="1"/>
+      <c r="F1034" s="1"/>
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1"/>
+      <c r="I1034" s="1"/>
+      <c r="J1034" s="1"/>
+      <c r="K1034" s="1"/>
+      <c r="L1034" s="1"/>
+      <c r="M1034" s="1"/>
+      <c r="N1034" s="1"/>
+      <c r="O1034" s="1"/>
+      <c r="P1034" s="1"/>
+      <c r="Q1034" s="1"/>
+      <c r="R1034" s="1"/>
+      <c r="S1034" s="1"/>
+      <c r="T1034" s="1"/>
+      <c r="U1034" s="1"/>
+      <c r="V1034" s="1"/>
+      <c r="W1034" s="1"/>
+      <c r="X1034" s="1"/>
+      <c r="Y1034" s="1"/>
+      <c r="Z1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="1"/>
+      <c r="F1035" s="1"/>
+      <c r="G1035" s="1"/>
+      <c r="H1035" s="1"/>
+      <c r="I1035" s="1"/>
+      <c r="J1035" s="1"/>
+      <c r="K1035" s="1"/>
+      <c r="L1035" s="1"/>
+      <c r="M1035" s="1"/>
+      <c r="N1035" s="1"/>
+      <c r="O1035" s="1"/>
+      <c r="P1035" s="1"/>
+      <c r="Q1035" s="1"/>
+      <c r="R1035" s="1"/>
+      <c r="S1035" s="1"/>
+      <c r="T1035" s="1"/>
+      <c r="U1035" s="1"/>
+      <c r="V1035" s="1"/>
+      <c r="W1035" s="1"/>
+      <c r="X1035" s="1"/>
+      <c r="Y1035" s="1"/>
+      <c r="Z1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="1"/>
+      <c r="F1036" s="1"/>
+      <c r="G1036" s="1"/>
+      <c r="H1036" s="1"/>
+      <c r="I1036" s="1"/>
+      <c r="J1036" s="1"/>
+      <c r="K1036" s="1"/>
+      <c r="L1036" s="1"/>
+      <c r="M1036" s="1"/>
+      <c r="N1036" s="1"/>
+      <c r="O1036" s="1"/>
+      <c r="P1036" s="1"/>
+      <c r="Q1036" s="1"/>
+      <c r="R1036" s="1"/>
+      <c r="S1036" s="1"/>
+      <c r="T1036" s="1"/>
+      <c r="U1036" s="1"/>
+      <c r="V1036" s="1"/>
+      <c r="W1036" s="1"/>
+      <c r="X1036" s="1"/>
+      <c r="Y1036" s="1"/>
+      <c r="Z1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="1"/>
+      <c r="B1037" s="1"/>
+      <c r="C1037" s="1"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="1"/>
+      <c r="F1037" s="1"/>
+      <c r="G1037" s="1"/>
+      <c r="H1037" s="1"/>
+      <c r="I1037" s="1"/>
+      <c r="J1037" s="1"/>
+      <c r="K1037" s="1"/>
+      <c r="L1037" s="1"/>
+      <c r="M1037" s="1"/>
+      <c r="N1037" s="1"/>
+      <c r="O1037" s="1"/>
+      <c r="P1037" s="1"/>
+      <c r="Q1037" s="1"/>
+      <c r="R1037" s="1"/>
+      <c r="S1037" s="1"/>
+      <c r="T1037" s="1"/>
+      <c r="U1037" s="1"/>
+      <c r="V1037" s="1"/>
+      <c r="W1037" s="1"/>
+      <c r="X1037" s="1"/>
+      <c r="Y1037" s="1"/>
+      <c r="Z1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="1"/>
+      <c r="B1038" s="1"/>
+      <c r="C1038" s="1"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="1"/>
+      <c r="F1038" s="1"/>
+      <c r="G1038" s="1"/>
+      <c r="H1038" s="1"/>
+      <c r="I1038" s="1"/>
+      <c r="J1038" s="1"/>
+      <c r="K1038" s="1"/>
+      <c r="L1038" s="1"/>
+      <c r="M1038" s="1"/>
+      <c r="N1038" s="1"/>
+      <c r="O1038" s="1"/>
+      <c r="P1038" s="1"/>
+      <c r="Q1038" s="1"/>
+      <c r="R1038" s="1"/>
+      <c r="S1038" s="1"/>
+      <c r="T1038" s="1"/>
+      <c r="U1038" s="1"/>
+      <c r="V1038" s="1"/>
+      <c r="W1038" s="1"/>
+      <c r="X1038" s="1"/>
+      <c r="Y1038" s="1"/>
+      <c r="Z1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="1"/>
+      <c r="B1039" s="1"/>
+      <c r="C1039" s="1"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="1"/>
+      <c r="F1039" s="1"/>
+      <c r="G1039" s="1"/>
+      <c r="H1039" s="1"/>
+      <c r="I1039" s="1"/>
+      <c r="J1039" s="1"/>
+      <c r="K1039" s="1"/>
+      <c r="L1039" s="1"/>
+      <c r="M1039" s="1"/>
+      <c r="N1039" s="1"/>
+      <c r="O1039" s="1"/>
+      <c r="P1039" s="1"/>
+      <c r="Q1039" s="1"/>
+      <c r="R1039" s="1"/>
+      <c r="S1039" s="1"/>
+      <c r="T1039" s="1"/>
+      <c r="U1039" s="1"/>
+      <c r="V1039" s="1"/>
+      <c r="W1039" s="1"/>
+      <c r="X1039" s="1"/>
+      <c r="Y1039" s="1"/>
+      <c r="Z1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="1"/>
+      <c r="B1040" s="1"/>
+      <c r="C1040" s="1"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="1"/>
+      <c r="F1040" s="1"/>
+      <c r="G1040" s="1"/>
+      <c r="H1040" s="1"/>
+      <c r="I1040" s="1"/>
+      <c r="J1040" s="1"/>
+      <c r="K1040" s="1"/>
+      <c r="L1040" s="1"/>
+      <c r="M1040" s="1"/>
+      <c r="N1040" s="1"/>
+      <c r="O1040" s="1"/>
+      <c r="P1040" s="1"/>
+      <c r="Q1040" s="1"/>
+      <c r="R1040" s="1"/>
+      <c r="S1040" s="1"/>
+      <c r="T1040" s="1"/>
+      <c r="U1040" s="1"/>
+      <c r="V1040" s="1"/>
+      <c r="W1040" s="1"/>
+      <c r="X1040" s="1"/>
+      <c r="Y1040" s="1"/>
+      <c r="Z1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="1"/>
+      <c r="B1041" s="1"/>
+      <c r="C1041" s="1"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="1"/>
+      <c r="F1041" s="1"/>
+      <c r="G1041" s="1"/>
+      <c r="H1041" s="1"/>
+      <c r="I1041" s="1"/>
+      <c r="J1041" s="1"/>
+      <c r="K1041" s="1"/>
+      <c r="L1041" s="1"/>
+      <c r="M1041" s="1"/>
+      <c r="N1041" s="1"/>
+      <c r="O1041" s="1"/>
+      <c r="P1041" s="1"/>
+      <c r="Q1041" s="1"/>
+      <c r="R1041" s="1"/>
+      <c r="S1041" s="1"/>
+      <c r="T1041" s="1"/>
+      <c r="U1041" s="1"/>
+      <c r="V1041" s="1"/>
+      <c r="W1041" s="1"/>
+      <c r="X1041" s="1"/>
+      <c r="Y1041" s="1"/>
+      <c r="Z1041" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A16:B16"/>
